--- a/output/k_tr_analysis.xlsx
+++ b/output/k_tr_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
         <v>4.5</v>
       </c>
       <c r="C2" t="n">
-        <v>37786.4</v>
+        <v>38134.4</v>
       </c>
       <c r="D2" t="n">
         <v>950</v>
       </c>
       <c r="E2" t="n">
-        <v>24.71362710235434</v>
+        <v>23.5590503973215</v>
       </c>
       <c r="F2" t="n">
-        <v>23505.82552704368</v>
+        <v>23405.4974841845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9758365926058352</v>
+        <v>0.9811547732188644</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +501,19 @@
         <v>4.5</v>
       </c>
       <c r="C3" t="n">
-        <v>37529.1</v>
+        <v>36874.1</v>
       </c>
       <c r="D3" t="n">
         <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>26.07151095776582</v>
+        <v>25.93872307936121</v>
       </c>
       <c r="F3" t="n">
-        <v>23597.89848679756</v>
+        <v>23693.18434649469</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9717941596382733</v>
+        <v>0.9842419232176488</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +524,19 @@
         <v>4.5</v>
       </c>
       <c r="C4" t="n">
-        <v>37598.5</v>
+        <v>37517</v>
       </c>
       <c r="D4" t="n">
         <v>950</v>
       </c>
       <c r="E4" t="n">
-        <v>24.63041615014885</v>
+        <v>27.21209904280836</v>
       </c>
       <c r="F4" t="n">
-        <v>23849.69796132414</v>
+        <v>23831.369085964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9770980491667002</v>
+        <v>0.98221263312125</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +547,19 @@
         <v>4.5</v>
       </c>
       <c r="C5" t="n">
-        <v>37367.4</v>
+        <v>37663.9</v>
       </c>
       <c r="D5" t="n">
         <v>950</v>
       </c>
       <c r="E5" t="n">
-        <v>26.15435885078051</v>
+        <v>28.19008572249232</v>
       </c>
       <c r="F5" t="n">
-        <v>23862.18614355694</v>
+        <v>24431.37160896217</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9736940883054686</v>
+        <v>0.9864591817212829</v>
       </c>
     </row>
     <row r="6">
@@ -570,364 +570,824 @@
         <v>4.5</v>
       </c>
       <c r="C6" t="n">
-        <v>37223.2</v>
+        <v>38013.2</v>
       </c>
       <c r="D6" t="n">
         <v>950</v>
       </c>
       <c r="E6" t="n">
-        <v>23.68433925265267</v>
+        <v>26.62904876943801</v>
       </c>
       <c r="F6" t="n">
-        <v>23986.52561542287</v>
+        <v>24430.88668053863</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9732223262220812</v>
+        <v>0.9810897737676894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>4.5</v>
       </c>
       <c r="C7" t="n">
-        <v>47322.8</v>
+        <v>37475.1</v>
       </c>
       <c r="D7" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E7" t="n">
-        <v>17.09279810673414</v>
+        <v>26.09081295936635</v>
       </c>
       <c r="F7" t="n">
-        <v>27421.38267105224</v>
+        <v>22581.59243476071</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9781706472094552</v>
+        <v>0.9716443555221144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>4.5</v>
       </c>
       <c r="C8" t="n">
-        <v>48472</v>
+        <v>36806.1</v>
       </c>
       <c r="D8" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E8" t="n">
-        <v>19.9419327188402</v>
+        <v>25.31770907068429</v>
       </c>
       <c r="F8" t="n">
-        <v>28693.20642140477</v>
+        <v>23441.93623648215</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9863340497670554</v>
+        <v>0.9820441011262362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>4.5</v>
       </c>
       <c r="C9" t="n">
-        <v>47486.2</v>
+        <v>37227.6</v>
       </c>
       <c r="D9" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E9" t="n">
-        <v>17.52657514378734</v>
+        <v>27.57785344602161</v>
       </c>
       <c r="F9" t="n">
-        <v>27467.68313302733</v>
+        <v>24424.03206232854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9652530258959919</v>
+        <v>0.9804890570902561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>4.5</v>
       </c>
       <c r="C10" t="n">
-        <v>47511.7</v>
+        <v>37153.2</v>
       </c>
       <c r="D10" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E10" t="n">
-        <v>19.42219684593918</v>
+        <v>25.18580850399429</v>
       </c>
       <c r="F10" t="n">
-        <v>26668.19719786828</v>
+        <v>24594.34093725765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9629404297542281</v>
+        <v>0.9748928146911474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>4.5</v>
       </c>
       <c r="C11" t="n">
-        <v>47734</v>
+        <v>38282.7</v>
       </c>
       <c r="D11" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="E11" t="n">
-        <v>18.35265338644841</v>
+        <v>27.81209572835645</v>
       </c>
       <c r="F11" t="n">
-        <v>27502.9999377622</v>
+        <v>25376.57679306328</v>
       </c>
       <c r="G11" t="n">
-        <v>0.972377783345779</v>
+        <v>0.9808238413443555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
         <v>4.5</v>
       </c>
       <c r="C12" t="n">
-        <v>53587.2</v>
+        <v>48471.6</v>
       </c>
       <c r="D12" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E12" t="n">
-        <v>29.26424615460112</v>
+        <v>16.61903558713032</v>
       </c>
       <c r="F12" t="n">
-        <v>35533.81111509098</v>
+        <v>26446.35617358118</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9850118233375562</v>
+        <v>0.971015994809713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
         <v>4.5</v>
       </c>
       <c r="C13" t="n">
-        <v>53811.9</v>
+        <v>46365.2</v>
       </c>
       <c r="D13" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E13" t="n">
-        <v>29.07453624241136</v>
+        <v>19.35584006769628</v>
       </c>
       <c r="F13" t="n">
-        <v>36016.4386216077</v>
+        <v>26862.40831071715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9869675639504819</v>
+        <v>0.9543119315696341</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>4.5</v>
       </c>
       <c r="C14" t="n">
-        <v>54211</v>
+        <v>47249.7</v>
       </c>
       <c r="D14" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E14" t="n">
-        <v>30.76568944432592</v>
+        <v>19.00704449384189</v>
       </c>
       <c r="F14" t="n">
-        <v>35028.3047043734</v>
+        <v>27760.30956833707</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9846864072209316</v>
+        <v>0.979014730011368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
         <v>4.5</v>
       </c>
       <c r="C15" t="n">
-        <v>52860.9</v>
+        <v>48139</v>
       </c>
       <c r="D15" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E15" t="n">
-        <v>24.79138187134396</v>
+        <v>18.33503339377911</v>
       </c>
       <c r="F15" t="n">
-        <v>34014.37264179993</v>
+        <v>26633.98828867209</v>
       </c>
       <c r="G15" t="n">
-        <v>0.979911391406026</v>
+        <v>0.9741241021308876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
         <v>4.5</v>
       </c>
       <c r="C16" t="n">
-        <v>53733.1</v>
+        <v>47819.4</v>
       </c>
       <c r="D16" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="E16" t="n">
-        <v>26.90370258651424</v>
+        <v>21.27402239875482</v>
       </c>
       <c r="F16" t="n">
-        <v>35294.09744047172</v>
+        <v>27459.57355261433</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9821860184614635</v>
+        <v>0.9762872175291387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="n">
         <v>4.5</v>
       </c>
       <c r="C17" t="n">
-        <v>65918.10000000001</v>
+        <v>48466.8</v>
       </c>
       <c r="D17" t="n">
         <v>1150</v>
       </c>
       <c r="E17" t="n">
-        <v>25.58950491946833</v>
+        <v>19.61806480619424</v>
       </c>
       <c r="F17" t="n">
-        <v>40592.30395959515</v>
+        <v>27048.61601677732</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9909515313530911</v>
+        <v>0.9838821901850168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
         <v>4.5</v>
       </c>
       <c r="C18" t="n">
-        <v>65323.1</v>
+        <v>48114</v>
       </c>
       <c r="D18" t="n">
         <v>1150</v>
       </c>
       <c r="E18" t="n">
-        <v>23.64988086314909</v>
+        <v>18.32346872720139</v>
       </c>
       <c r="F18" t="n">
-        <v>40455.82046571648</v>
+        <v>27058.48288887176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9905039563095823</v>
+        <v>0.9746364936298368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>64877.2</v>
+        <v>48828.8</v>
       </c>
       <c r="D19" t="n">
         <v>1150</v>
       </c>
       <c r="E19" t="n">
-        <v>23.89243196657658</v>
+        <v>18.57082062573664</v>
       </c>
       <c r="F19" t="n">
-        <v>39860.15276279311</v>
+        <v>27265.73686286135</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9895020468378194</v>
+        <v>0.9799148813848152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="n">
         <v>4.5</v>
       </c>
       <c r="C20" t="n">
-        <v>65834.2</v>
+        <v>48051.3</v>
       </c>
       <c r="D20" t="n">
         <v>1150</v>
       </c>
       <c r="E20" t="n">
-        <v>23.78972620528884</v>
+        <v>17.927590697315</v>
       </c>
       <c r="F20" t="n">
-        <v>39946.99574747866</v>
+        <v>27789.5863850318</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9935837924298639</v>
+        <v>0.9777157536705722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>48114.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18.1887875905155</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26810.64774953898</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9745613465854012</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>53463.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>950</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26.71747515495077</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35235.7071733722</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9839477487731652</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53387.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>950</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28.25496492910569</v>
+      </c>
+      <c r="F23" t="n">
+        <v>36090.99774584673</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.985354053752007</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53384.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>950</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29.04808091606985</v>
+      </c>
+      <c r="F24" t="n">
+        <v>36077.81762212518</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9900387481433001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>53222.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>950</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.36370993172485</v>
+      </c>
+      <c r="F25" t="n">
+        <v>35586.86433151399</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.984587892427724</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>53670.3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>950</v>
+      </c>
+      <c r="E26" t="n">
+        <v>25.70909540147739</v>
+      </c>
+      <c r="F26" t="n">
+        <v>34860.96273760169</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9802030613182431</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>53870.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>950</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30.29624124552589</v>
+      </c>
+      <c r="F27" t="n">
+        <v>35052.87889452923</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9861971396911343</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>53570.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>950</v>
+      </c>
+      <c r="E28" t="n">
+        <v>26.74152950503949</v>
+      </c>
+      <c r="F28" t="n">
+        <v>35073.35926922494</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9859557575590683</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>53717.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>950</v>
+      </c>
+      <c r="E29" t="n">
+        <v>27.06865934667895</v>
+      </c>
+      <c r="F29" t="n">
+        <v>34963.19153708105</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9840050897593927</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>54176.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>950</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26.7697630353243</v>
+      </c>
+      <c r="F30" t="n">
+        <v>35170.97394679672</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9875460967915697</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>54138.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>950</v>
+      </c>
+      <c r="E31" t="n">
+        <v>27.80746743302122</v>
+      </c>
+      <c r="F31" t="n">
+        <v>34827.72913714989</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9810515619135133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>65642.89999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22.90149523273176</v>
-      </c>
-      <c r="F21" t="n">
-        <v>40150.56391770939</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9886065424162778</v>
+      <c r="B32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>65511.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25.00904231704294</v>
+      </c>
+      <c r="F32" t="n">
+        <v>40306.53307044197</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9917369037625691</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>65975.60000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E33" t="n">
+        <v>24.65889241588996</v>
+      </c>
+      <c r="F33" t="n">
+        <v>40747.56579383877</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9926626973909801</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>65034.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E34" t="n">
+        <v>24.87044194976955</v>
+      </c>
+      <c r="F34" t="n">
+        <v>40215.1117930312</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9911739356081303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>64865.6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E35" t="n">
+        <v>23.30948824444145</v>
+      </c>
+      <c r="F35" t="n">
+        <v>40183.98638511782</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9907491615783797</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>64887.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23.76439901253996</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38743.95185917902</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.988992050147329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>65211.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.1426192787381</v>
+      </c>
+      <c r="F37" t="n">
+        <v>39459.15194831874</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9917257415442153</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>65997.60000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E38" t="n">
+        <v>24.52720171732775</v>
+      </c>
+      <c r="F38" t="n">
+        <v>39769.75094024458</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9876281901076451</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64449.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24.10837495795691</v>
+      </c>
+      <c r="F39" t="n">
+        <v>39870.56547699677</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9930816779890796</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>65110.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.38167633793158</v>
+      </c>
+      <c r="F40" t="n">
+        <v>40862.46233904704</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9901732471980423</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>65227.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E41" t="n">
+        <v>24.42038989802148</v>
+      </c>
+      <c r="F41" t="n">
+        <v>39725.06102264649</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9858882158056612</v>
       </c>
     </row>
   </sheetData>
